--- a/target/test-classes/TestData/testdataa.xlsx
+++ b/target/test-classes/TestData/testdataa.xlsx
@@ -3,21 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jimmy\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F416880-0574-45BE-8E90-A0FF3A83C947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6839D400-B696-4DDF-98BB-65082998E899}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="20790" windowHeight="11820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:J7"/>
 </workbook>
 </file>
 
@@ -642,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -833,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
